--- a/output/time dependant variables/df_time_dependent_variable_values3.xlsx
+++ b/output/time dependant variables/df_time_dependent_variable_values3.xlsx
@@ -19,118 +19,118 @@
     <t>TimeStep</t>
   </si>
   <si>
+    <t>demand1_op_cost</t>
+  </si>
+  <si>
     <t>demand1_inv_cost</t>
   </si>
   <si>
-    <t>demand1_op_cost</t>
+    <t>P_net1_bat1</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
   </si>
   <si>
     <t>net1_emissions</t>
   </si>
   <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>net1_buy_thermal</t>
+  </si>
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>net1_sell_electric</t>
+  </si>
+  <si>
+    <t>net1_buy_electric</t>
+  </si>
+  <si>
     <t>net1_inv_cost</t>
   </si>
   <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>P_net1_bat1</t>
-  </si>
-  <si>
-    <t>P_to_net1</t>
+    <t>net1_sell_thermal</t>
+  </si>
+  <si>
+    <t>Q_to_net1</t>
   </si>
   <si>
     <t>P_from_net1</t>
   </si>
   <si>
-    <t>net1_sell_electric</t>
-  </si>
-  <si>
-    <t>P_net1_demand1</t>
-  </si>
-  <si>
     <t>Q_net1_demand1</t>
   </si>
   <si>
-    <t>Q_to_net1</t>
-  </si>
-  <si>
-    <t>net1_sell_thermal</t>
-  </si>
-  <si>
-    <t>net1_buy_electric</t>
-  </si>
-  <si>
-    <t>net1_buy_thermal</t>
+    <t>pv1_inv_cost</t>
+  </si>
+  <si>
+    <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>pv1_op_cost</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
+  </si>
+  <si>
+    <t>pv1_emissions</t>
+  </si>
+  <si>
+    <t>P_pv1_bat1</t>
   </si>
   <si>
     <t>P_from_pv1</t>
   </si>
   <si>
-    <t>P_pv1_demand1</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
-    <t>pv1_op_cost</t>
-  </si>
-  <si>
-    <t>pv1_inv_cost</t>
-  </si>
-  <si>
-    <t>pv1_emissions</t>
-  </si>
-  <si>
-    <t>P_pv1_bat1</t>
+    <t>bat1_SOC</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>bat1_cumulated_aging</t>
+  </si>
+  <si>
+    <t>bat1_op_cost</t>
+  </si>
+  <si>
+    <t>P_to_bat1</t>
+  </si>
+  <si>
+    <t>bat1_integer</t>
+  </si>
+  <si>
+    <t>bat1_inv_cost</t>
+  </si>
+  <si>
+    <t>bat1_K_dis</t>
+  </si>
+  <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>bat1_SOC_max</t>
+  </si>
+  <si>
+    <t>bat1_emissions</t>
   </si>
   <si>
     <t>bat1_K_ch</t>
   </si>
   <si>
-    <t>bat1_SOC</t>
-  </si>
-  <si>
-    <t>bat1_inv_cost</t>
-  </si>
-  <si>
-    <t>bat1_cumulated_aging</t>
-  </si>
-  <si>
-    <t>bat1_K_dis</t>
-  </si>
-  <si>
-    <t>bat1_SOC_max</t>
-  </si>
-  <si>
-    <t>P_to_bat1</t>
-  </si>
-  <si>
-    <t>P_from_bat1</t>
-  </si>
-  <si>
-    <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>bat1_op_cost</t>
-  </si>
-  <si>
-    <t>P_bat1_demand1</t>
-  </si>
-  <si>
-    <t>bat1_emissions</t>
-  </si>
-  <si>
-    <t>bat1_integer</t>
+    <t>total_sell</t>
   </si>
   <si>
     <t>total_buy</t>
   </si>
   <si>
     <t>total_operation_cost</t>
-  </si>
-  <si>
-    <t>total_sell</t>
   </si>
   <si>
     <t>total_emissions</t>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +621,7 @@
     </row>
     <row r="2" spans="1:40">
       <c r="A2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -630,31 +630,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>401.9703818230404</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>117.6452511022828</v>
       </c>
       <c r="F2">
-        <v>748.0604062419137</v>
+        <v>144.2636310381002</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>107.77564932863</v>
       </c>
       <c r="I2">
-        <v>397.2069362946091</v>
+        <v>326.5928767534242</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>397.2069362946091</v>
+        <v>48.23455295193595</v>
       </c>
       <c r="L2">
-        <v>748.0604062419137</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -663,87 +663,87 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>166.8269132437358</v>
+        <v>117.6452511022828</v>
       </c>
       <c r="P2">
-        <v>224.4181218725741</v>
+        <v>326.5928767534242</v>
       </c>
       <c r="Q2">
-        <v>1.5000012</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.5000012</v>
+        <v>0.0833334</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="V2">
-        <v>0.7500006</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0833334</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.9999611897929528</v>
       </c>
       <c r="Y2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="AA2">
-        <v>0.1</v>
+        <v>3.881020704719496E-05</v>
       </c>
       <c r="AB2">
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
         <v>100</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
       <c r="AH2">
-        <v>100</v>
+        <v>0.9999611897929528</v>
       </c>
       <c r="AI2">
         <v>0.2777777777777777</v>
       </c>
       <c r="AJ2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>391.24503511631</v>
+        <v>0</v>
       </c>
       <c r="AL2">
+        <v>156.0102022805659</v>
+      </c>
+      <c r="AM2">
         <v>2</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
       <c r="AN2">
-        <v>402.9981602008182</v>
+        <v>144.583075515878</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="A3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -752,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>456.0382186374817</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>273.7825087059377</v>
       </c>
       <c r="F3">
-        <v>762.5242708263288</v>
+        <v>275.9385807963816</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>199.2581108717169</v>
       </c>
       <c r="I3">
-        <v>487.5578457842192</v>
+        <v>510.9182330044023</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>487.5578457842192</v>
+        <v>128.6777790917907</v>
       </c>
       <c r="L3">
-        <v>762.5242708263288</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -785,87 +785,87 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>234.0277659764252</v>
+        <v>273.7825087059377</v>
       </c>
       <c r="P3">
-        <v>274.5087374974784</v>
+        <v>510.9182330044023</v>
       </c>
       <c r="Q3">
-        <v>1.7916681</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.7916681</v>
+        <v>0.3333336</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.1666668</v>
       </c>
       <c r="V3">
-        <v>0.89583405</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.3333336</v>
       </c>
       <c r="X3">
-        <v>1.110223024625157E-16</v>
+        <v>0.3</v>
       </c>
       <c r="Y3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>66.49631303033051</v>
       </c>
       <c r="AA3">
-        <v>0.1000031666666667</v>
+        <v>4.989292588558337E-05</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.8999968333333334</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>66.49631303033051</v>
       </c>
       <c r="AH3">
-        <v>19</v>
+        <v>0.9999501070741145</v>
       </c>
       <c r="AI3">
-        <v>0.05277777777777776</v>
+        <v>0.184711980639807</v>
       </c>
       <c r="AJ3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>508.5365034739036</v>
+        <v>0</v>
       </c>
       <c r="AL3">
+        <v>327.9358899635076</v>
+      </c>
+      <c r="AM3">
         <v>2</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
       <c r="AN3">
-        <v>456.9868304652595</v>
+        <v>276.2899595770214</v>
       </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -874,31 +874,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>390.6497690227015</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>427.0718846572899</v>
       </c>
       <c r="F4">
-        <v>638.3365810544047</v>
+        <v>393.3711342567067</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>257.018131414374</v>
       </c>
       <c r="I4">
-        <v>424.0160528029365</v>
+        <v>642.5453285359349</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>424.0160528029365</v>
+        <v>192.1823480957805</v>
       </c>
       <c r="L4">
-        <v>638.3365810544047</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -907,87 +907,87 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>190.8072237613214</v>
+        <v>427.0718846572899</v>
       </c>
       <c r="P4">
-        <v>242.5679008006738</v>
+        <v>642.5453285359349</v>
       </c>
       <c r="Q4">
-        <v>1.5416679</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.5416679</v>
+        <v>1.2916677</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.64583385</v>
       </c>
       <c r="V4">
-        <v>0.77083395</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.2916677</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.1000031666666667</v>
+        <v>4.989292588558337E-05</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.8999968333333334</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.9999501070741145</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>433.3751245619952</v>
+        <v>0</v>
       </c>
       <c r="AL4">
+        <v>449.2004795101544</v>
+      </c>
+      <c r="AM4">
         <v>2</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
       <c r="AN4">
-        <v>391.4206029727015</v>
+        <v>394.0169681067067</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -996,31 +996,31 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>307.6323088539191</v>
+        <v>73.67766604874802</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>497.2069362946091</v>
       </c>
       <c r="F5">
-        <v>502.1450692400854</v>
+        <v>499.2298748103394</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>224.4181218725741</v>
       </c>
       <c r="I5">
-        <v>334.1383789933903</v>
+        <v>748.0604062419137</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>334.1383789933903</v>
+        <v>239.77153298421</v>
       </c>
       <c r="L5">
-        <v>502.1450692400854</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1029,87 +1029,87 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>133.6553515973561</v>
+        <v>570.8846023433572</v>
       </c>
       <c r="P5">
-        <v>185.7936756188316</v>
+        <v>748.0604062419137</v>
       </c>
       <c r="Q5">
-        <v>0.6250005000000001</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.6250005000000001</v>
+        <v>1.5000012</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.7500006</v>
       </c>
       <c r="V5">
-        <v>0.31250025</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.5000012</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.9999378274631062</v>
       </c>
       <c r="Y5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.1000031666666667</v>
+        <v>6.217253689370805E-05</v>
       </c>
       <c r="AB5">
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.8999968333333334</v>
+        <v>73.67766604874802</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.9999378274631063</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.2046601834687445</v>
       </c>
       <c r="AJ5">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>319.4490272161877</v>
+        <v>0</v>
       </c>
       <c r="AL5">
+        <v>464.1896548567842</v>
+      </c>
+      <c r="AM5">
         <v>2</v>
       </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
       <c r="AN5">
-        <v>307.9448091039191</v>
+        <v>500.1845355938081</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>207.6915772579104</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>440.0637521752241</v>
       </c>
       <c r="F6">
-        <v>430.1221369857234</v>
+        <v>429.4415262164445</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>274.5087374974784</v>
       </c>
       <c r="I6">
-        <v>186.5397578238156</v>
+        <v>762.5242708263288</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>186.5397578238156</v>
+        <v>211.2306010441076</v>
       </c>
       <c r="L6">
-        <v>430.1221369857234</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1151,204 +1151,814 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>91.40448133366962</v>
+        <v>440.0637521752241</v>
       </c>
       <c r="P6">
-        <v>154.8439693148604</v>
+        <v>762.5242708263288</v>
       </c>
       <c r="Q6">
-        <v>0.2083335</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.2083335</v>
+        <v>1.7916681</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.89583405</v>
       </c>
       <c r="V6">
-        <v>0.10416675</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1.7916681</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.5</v>
+        <v>66.49409360899509</v>
       </c>
       <c r="AA6">
-        <v>0.1</v>
+        <v>7.325488582854057E-05</v>
       </c>
       <c r="AB6">
         <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>66.49409360899509</v>
       </c>
       <c r="AH6">
-        <v>100</v>
+        <v>0.9999267451141715</v>
       </c>
       <c r="AI6">
-        <v>0.2777777777777777</v>
+        <v>0.1847058155805419</v>
       </c>
       <c r="AJ6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>246.24845064853</v>
+        <v>0</v>
       </c>
       <c r="AL6">
+        <v>485.7393385415859</v>
+      </c>
+      <c r="AM6">
         <v>2</v>
       </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
       <c r="AN6">
-        <v>208.0735217856881</v>
+        <v>430.522066082025</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>424.0160528029365</v>
+      </c>
+      <c r="F7">
+        <v>390.6497690227015</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>242.5679008006738</v>
+      </c>
+      <c r="I7">
+        <v>638.3365810544047</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>190.8072237613214</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>424.0160528029365</v>
+      </c>
+      <c r="P7">
+        <v>638.3365810544047</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.5416679</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0.77083395</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1.5416679</v>
+      </c>
+      <c r="X7">
+        <v>0.3</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>7.325488582854057E-05</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>-0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0.9999267451141715</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>433.3751245619952</v>
+      </c>
+      <c r="AM7">
+        <v>2</v>
+      </c>
+      <c r="AN7">
+        <v>391.4206029727015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>73.05020643821211</v>
+      </c>
+      <c r="E8">
+        <v>334.7633794933903</v>
+      </c>
+      <c r="F8">
+        <v>348.8904247393178</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>185.7936756188316</v>
+      </c>
+      <c r="I8">
+        <v>502.1450692400854</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>163.125434372641</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>407.8135859316024</v>
+      </c>
+      <c r="P8">
+        <v>502.1450692400854</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0.31250025</v>
+      </c>
+      <c r="V8">
+        <v>0.6250005000000001</v>
+      </c>
+      <c r="W8">
+        <v>0.6250005000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.9999144659130151</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>8.553408698490925E-05</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>73.67520693821211</v>
+      </c>
+      <c r="AD8">
+        <v>-0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>-0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.9999144659130151</v>
+      </c>
+      <c r="AI8">
+        <v>0.2046533526061447</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>348.9191099914726</v>
+      </c>
+      <c r="AM8">
+        <v>2</v>
+      </c>
+      <c r="AN8">
+        <v>349.407578341924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>220.0478835620791</v>
+      </c>
+      <c r="F9">
+        <v>226.4561276713379</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>154.8439693148604</v>
+      </c>
+      <c r="I9">
+        <v>430.1221369857234</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>107.8234629454188</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>220.0478835620791</v>
+      </c>
+      <c r="P9">
+        <v>430.1221369857234</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.2083335</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.10416675</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.2083335</v>
+      </c>
+      <c r="X9">
+        <v>0.3</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>66.49187426173644</v>
+      </c>
+      <c r="AA9">
+        <v>9.661606602853199E-05</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>-0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>66.49187426173644</v>
+      </c>
+      <c r="AH9">
+        <v>0.9999033839339715</v>
+      </c>
+      <c r="AI9">
+        <v>0.1846996507270456</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>262.6674322602792</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>226.744994072065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10">
         <v>17</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>230.7721747903701</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>262.4045378156197</v>
+      </c>
+      <c r="F10">
+        <v>241.4121747903701</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>153.5066546221375</v>
+      </c>
+      <c r="I10">
         <v>393.6068067234295</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>243.4045378156197</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>243.4045378156197</v>
-      </c>
-      <c r="L7">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>120.7060873951851</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>262.4045378156197</v>
+      </c>
+      <c r="P10">
         <v>393.6068067234295</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>111.9660873951851</v>
-      </c>
-      <c r="P7">
-        <v>153.5066546221375</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>0.3</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0.1000031666666667</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <v>0.8999968333333334</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>19.00000000000001</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7">
-        <v>19.00000000000001</v>
-      </c>
-      <c r="AI7">
-        <v>0.05277777777777779</v>
-      </c>
-      <c r="AJ7">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>9.661606602853199E-05</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <v>-0</v>
       </c>
-      <c r="AK7">
-        <v>265.4727420173226</v>
-      </c>
-      <c r="AL7">
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0.9999033839339715</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>274.2127420173226</v>
+      </c>
+      <c r="AM10">
         <v>2</v>
       </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>230.8249525681479</v>
+      <c r="AN10">
+        <v>241.4121747903701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>309.1354664251031</v>
+      </c>
+      <c r="F11">
+        <v>284.4046291110949</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>157.6590878768026</v>
+      </c>
+      <c r="I11">
+        <v>463.7031996376547</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>148.3850238840495</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>309.1354664251031</v>
+      </c>
+      <c r="P11">
+        <v>463.7031996376547</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0.3</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>9.661606602853199E-05</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>-0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0.9999033839339715</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>306.0441117608521</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>284.4046291110949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>384.636049180636</v>
+      </c>
+      <c r="F12">
+        <v>353.8651652461851</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>225.0120887706721</v>
+      </c>
+      <c r="I12">
+        <v>576.954073770954</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>153.8544196722544</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>384.636049180636</v>
+      </c>
+      <c r="P12">
+        <v>576.954073770954</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0.3</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>9.661606602853199E-05</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>-0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0.9999033839339715</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>378.8665084429265</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>353.8651652461851</v>
       </c>
     </row>
   </sheetData>

--- a/output/time dependant variables/df_time_dependent_variable_values3.xlsx
+++ b/output/time dependant variables/df_time_dependent_variable_values3.xlsx
@@ -25,112 +25,112 @@
     <t>demand1_inv_cost</t>
   </si>
   <si>
+    <t>net1_buy_electric</t>
+  </si>
+  <si>
+    <t>P_from_net1</t>
+  </si>
+  <si>
+    <t>net1_sell_electric</t>
+  </si>
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>net1_buy_thermal</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
+  </si>
+  <si>
+    <t>net1_sell_thermal</t>
+  </si>
+  <si>
+    <t>Q_to_net1</t>
+  </si>
+  <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>net1_emissions</t>
+  </si>
+  <si>
+    <t>net1_inv_cost</t>
+  </si>
+  <si>
+    <t>Q_net1_demand1</t>
+  </si>
+  <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
-    <t>P_net1_demand1</t>
-  </si>
-  <si>
-    <t>net1_emissions</t>
-  </si>
-  <si>
-    <t>P_to_net1</t>
-  </si>
-  <si>
-    <t>net1_buy_thermal</t>
-  </si>
-  <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>net1_sell_electric</t>
-  </si>
-  <si>
-    <t>net1_buy_electric</t>
-  </si>
-  <si>
-    <t>net1_inv_cost</t>
-  </si>
-  <si>
-    <t>net1_sell_thermal</t>
-  </si>
-  <si>
-    <t>Q_to_net1</t>
-  </si>
-  <si>
-    <t>P_from_net1</t>
-  </si>
-  <si>
-    <t>Q_net1_demand1</t>
+    <t>pv1_op_cost</t>
+  </si>
+  <si>
+    <t>P_from_pv1</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
   </si>
   <si>
     <t>pv1_inv_cost</t>
   </si>
   <si>
+    <t>pv1_emissions</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
-    <t>pv1_op_cost</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
-    <t>pv1_emissions</t>
-  </si>
-  <si>
     <t>P_pv1_bat1</t>
   </si>
   <si>
-    <t>P_from_pv1</t>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>bat1_emissions</t>
+  </si>
+  <si>
+    <t>bat1_cumulated_aging</t>
+  </si>
+  <si>
+    <t>bat1_K_dis</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>bat1_K_ch</t>
+  </si>
+  <si>
+    <t>bat1_SOC_max</t>
+  </si>
+  <si>
+    <t>bat1_inv_cost</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
   </si>
   <si>
     <t>bat1_SOC</t>
   </si>
   <si>
-    <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>P_bat1_demand1</t>
-  </si>
-  <si>
-    <t>bat1_cumulated_aging</t>
-  </si>
-  <si>
     <t>bat1_op_cost</t>
   </si>
   <si>
+    <t>bat1_integer</t>
+  </si>
+  <si>
     <t>P_to_bat1</t>
   </si>
   <si>
-    <t>bat1_integer</t>
-  </si>
-  <si>
-    <t>bat1_inv_cost</t>
-  </si>
-  <si>
-    <t>bat1_K_dis</t>
-  </si>
-  <si>
-    <t>P_from_bat1</t>
-  </si>
-  <si>
-    <t>bat1_SOC_max</t>
-  </si>
-  <si>
-    <t>bat1_emissions</t>
-  </si>
-  <si>
-    <t>bat1_K_ch</t>
+    <t>total_operation_cost</t>
+  </si>
+  <si>
+    <t>total_buy</t>
   </si>
   <si>
     <t>total_sell</t>
-  </si>
-  <si>
-    <t>total_buy</t>
-  </si>
-  <si>
-    <t>total_operation_cost</t>
   </si>
   <si>
     <t>total_emissions</t>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +621,7 @@
     </row>
     <row r="2" spans="1:40">
       <c r="A2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -630,120 +630,120 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>93.65535159735612</v>
       </c>
       <c r="E2">
-        <v>117.6452511022828</v>
+        <v>234.1383789933903</v>
       </c>
       <c r="F2">
-        <v>144.2636310381002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>502.1450692400854</v>
       </c>
       <c r="H2">
-        <v>107.77564932863</v>
+        <v>185.7936756188316</v>
       </c>
       <c r="I2">
-        <v>326.5928767534242</v>
+        <v>234.1383789933903</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>48.23455295193595</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>251.6323088539191</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>117.6452511022828</v>
+        <v>502.1450692400854</v>
       </c>
       <c r="P2">
-        <v>326.5928767534242</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.0833334</v>
+        <v>0.6250005000000001</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0416667</v>
+        <v>0.31250025</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.6250005000000001</v>
       </c>
       <c r="W2">
-        <v>0.0833334</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.9999611897929528</v>
+        <v>100</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.2777777777777777</v>
       </c>
       <c r="Z2">
+        <v>8.553408698490928E-05</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0.9999144659130152</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>100</v>
       </c>
-      <c r="AA2">
-        <v>3.881020704719496E-05</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AG2">
+        <v>0.9999144659130152</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
         <v>-0</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>100</v>
-      </c>
-      <c r="AH2">
-        <v>0.9999611897929528</v>
-      </c>
-      <c r="AI2">
-        <v>0.2777777777777777</v>
-      </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL2">
-        <v>156.0102022805659</v>
+        <v>279.4490272161877</v>
       </c>
       <c r="AM2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>144.583075515878</v>
+        <v>252.2225868816969</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="A3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -752,120 +752,120 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>107.8234629454188</v>
       </c>
       <c r="E3">
-        <v>273.7825087059377</v>
+        <v>220.0478835620791</v>
       </c>
       <c r="F3">
-        <v>275.9385807963816</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>430.1221369857234</v>
       </c>
       <c r="H3">
-        <v>199.2581108717169</v>
+        <v>154.8439693148604</v>
       </c>
       <c r="I3">
-        <v>510.9182330044023</v>
+        <v>220.0478835620791</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>128.6777790917907</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>226.4561276713379</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>273.7825087059377</v>
+        <v>430.1221369857234</v>
       </c>
       <c r="P3">
-        <v>510.9182330044023</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0.3333336</v>
+        <v>0.2083335</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.1666668</v>
+        <v>0.10416675</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.2083335</v>
       </c>
       <c r="W3">
-        <v>0.3333336</v>
+        <v>0</v>
       </c>
       <c r="X3">
+        <v>66.49187426173644</v>
+      </c>
+      <c r="Y3">
+        <v>0.1846996507270456</v>
+      </c>
+      <c r="Z3">
+        <v>9.661606602853202E-05</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0.9999033839339715</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>66.49187426173644</v>
+      </c>
+      <c r="AG3">
         <v>0.3</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>66.49631303033051</v>
-      </c>
-      <c r="AA3">
-        <v>4.989292588558337E-05</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
         <v>-0</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>66.49631303033051</v>
-      </c>
-      <c r="AH3">
-        <v>0.9999501070741145</v>
-      </c>
-      <c r="AI3">
-        <v>0.184711980639807</v>
-      </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL3">
-        <v>327.9358899635076</v>
+        <v>262.6674322602792</v>
       </c>
       <c r="AM3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>276.2899595770214</v>
+        <v>226.744994072065</v>
       </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -874,120 +874,120 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>120.7060873951851</v>
       </c>
       <c r="E4">
-        <v>427.0718846572899</v>
+        <v>262.4045378156197</v>
       </c>
       <c r="F4">
-        <v>393.3711342567067</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>393.6068067234295</v>
       </c>
       <c r="H4">
-        <v>257.018131414374</v>
+        <v>153.5066546221375</v>
       </c>
       <c r="I4">
-        <v>642.5453285359349</v>
+        <v>262.4045378156197</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>192.1823480957805</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>241.4121747903701</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>427.0718846572899</v>
+        <v>393.6068067234295</v>
       </c>
       <c r="P4">
-        <v>642.5453285359349</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.2916677</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.64583385</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1.2916677</v>
+        <v>0</v>
       </c>
       <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>9.661606602853202E-05</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.9999033839339715</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>0.3</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>4.989292588558337E-05</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
         <v>-0</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0.9999501070741145</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL4">
-        <v>449.2004795101544</v>
+        <v>274.2127420173226</v>
       </c>
       <c r="AM4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>394.0169681067067</v>
+        <v>241.4121747903701</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -996,120 +996,120 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>73.67766604874802</v>
+        <v>148.3850238840495</v>
       </c>
       <c r="E5">
-        <v>497.2069362946091</v>
+        <v>309.1354664251031</v>
       </c>
       <c r="F5">
-        <v>499.2298748103394</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>463.7031996376547</v>
       </c>
       <c r="H5">
-        <v>224.4181218725741</v>
+        <v>157.6590878768026</v>
       </c>
       <c r="I5">
-        <v>748.0604062419137</v>
+        <v>309.1354664251031</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>239.77153298421</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>284.4046291110949</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>570.8846023433572</v>
+        <v>463.7031996376547</v>
       </c>
       <c r="P5">
-        <v>748.0604062419137</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1.5000012</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.7500006</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1.5000012</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.9999378274631062</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>9.661606602853202E-05</v>
       </c>
       <c r="AA5">
-        <v>6.217253689370805E-05</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>73.67766604874802</v>
+        <v>0</v>
       </c>
       <c r="AD5">
+        <v>0.9999033839339715</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0.3</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
         <v>-0</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>-0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0.9999378274631063</v>
-      </c>
-      <c r="AI5">
-        <v>0.2046601834687445</v>
-      </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL5">
-        <v>464.1896548567842</v>
+        <v>306.0441117608521</v>
       </c>
       <c r="AM5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>500.1845355938081</v>
+        <v>284.4046291110949</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1118,120 +1118,120 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>183.3235188361556</v>
       </c>
       <c r="E6">
-        <v>440.0637521752241</v>
+        <v>458.308797090389</v>
       </c>
       <c r="F6">
-        <v>429.4415262164445</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>576.954073770954</v>
       </c>
       <c r="H6">
-        <v>274.5087374974784</v>
+        <v>225.0120887706721</v>
       </c>
       <c r="I6">
-        <v>762.5242708263288</v>
+        <v>384.636049180636</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>211.2306010441076</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>395.1219040756467</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>440.0637521752241</v>
+        <v>576.954073770954</v>
       </c>
       <c r="P6">
-        <v>762.5242708263288</v>
+        <v>73.67274790975297</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1.7916681</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.89583405</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>1.7916681</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.204646521971536</v>
       </c>
       <c r="Z6">
-        <v>66.49409360899509</v>
+        <v>0.0001088948573468242</v>
       </c>
       <c r="AA6">
-        <v>7.325488582854057E-05</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
+        <v>0.9998911051426532</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0.9998911051426532</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
         <v>-0</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>66.49409360899509</v>
-      </c>
-      <c r="AH6">
-        <v>0.9999267451141715</v>
-      </c>
-      <c r="AI6">
-        <v>0.1847058155805419</v>
-      </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>73.67274790975297</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL6">
-        <v>485.7393385415859</v>
+        <v>408.3356076068276</v>
       </c>
       <c r="AM6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>430.522066082025</v>
+        <v>395.3265505976183</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1240,120 +1240,120 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>177.7435074899564</v>
       </c>
       <c r="E7">
-        <v>424.0160528029365</v>
+        <v>433.5207499755035</v>
       </c>
       <c r="F7">
-        <v>390.6497690227015</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>650.2811249632553</v>
       </c>
       <c r="H7">
-        <v>242.5679008006738</v>
+        <v>214.5927712378742</v>
       </c>
       <c r="I7">
-        <v>638.3365810544047</v>
+        <v>433.5207499755035</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>190.8072237613214</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>398.8390899774632</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>424.0160528029365</v>
+        <v>650.2811249632553</v>
       </c>
       <c r="P7">
-        <v>638.3365810544047</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.5416679</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.77083395</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1.5416679</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.0001088948573468242</v>
       </c>
       <c r="AA7">
-        <v>7.325488582854057E-05</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
+        <v>0.9998911051426532</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0.9998911051426532</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
         <v>-0</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0.9999267451141715</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL7">
-        <v>433.3751245619952</v>
+        <v>392.3362787278307</v>
       </c>
       <c r="AM7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>391.4206029727015</v>
+        <v>398.8390899774632</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1362,120 +1362,120 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>73.05020643821211</v>
+        <v>160.3842253015428</v>
       </c>
       <c r="E8">
-        <v>334.7633794933903</v>
+        <v>327.3147455133526</v>
       </c>
       <c r="F8">
-        <v>348.8904247393178</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>590.7066007528571</v>
       </c>
       <c r="H8">
-        <v>185.7936756188316</v>
+        <v>218.5614422785571</v>
       </c>
       <c r="I8">
-        <v>502.1450692400854</v>
+        <v>327.3147455133526</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>163.125434372641</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>325.0658416681632</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>407.8135859316024</v>
+        <v>590.7066007528571</v>
       </c>
       <c r="P8">
-        <v>502.1450692400854</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.31250025</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.6250005000000001</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.6250005000000001</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.9999144659130151</v>
+        <v>66.48965498855206</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.1846934860793113</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.0001199764665115829</v>
       </c>
       <c r="AA8">
-        <v>8.553408698490925E-05</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>73.67520693821211</v>
+        <v>0</v>
       </c>
       <c r="AD8">
+        <v>0.9998800235334884</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>66.48965498855206</v>
+      </c>
+      <c r="AG8">
+        <v>0.3</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
         <v>-0</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>-0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0.9999144659130151</v>
-      </c>
-      <c r="AI8">
-        <v>0.2046533526061447</v>
-      </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL8">
-        <v>348.9191099914726</v>
+        <v>378.9456675800999</v>
       </c>
       <c r="AM8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>349.407578341924</v>
+        <v>325.2505351542425</v>
       </c>
     </row>
     <row r="9" spans="1:40">
       <c r="A9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1484,120 +1484,120 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>162.7885897984153</v>
       </c>
       <c r="E9">
-        <v>220.0478835620791</v>
+        <v>406.9714744960382</v>
       </c>
       <c r="F9">
-        <v>226.4561276713379</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>499.9517782990056</v>
       </c>
       <c r="H9">
-        <v>154.8439693148604</v>
+        <v>169.9836046216619</v>
       </c>
       <c r="I9">
-        <v>430.1221369857234</v>
+        <v>333.3011855326704</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>107.8234629454188</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>347.8924525095427</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>220.0478835620791</v>
+        <v>499.9517782990056</v>
       </c>
       <c r="P9">
-        <v>430.1221369857234</v>
+        <v>73.67028896336785</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0.2083335</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.10416675</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.2083335</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.2046396915649107</v>
       </c>
       <c r="Z9">
-        <v>66.49187426173644</v>
+        <v>0.0001322548480054775</v>
       </c>
       <c r="AA9">
-        <v>9.661606602853199E-05</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
+        <v>0.9998677451519945</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0.9998677451519946</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
         <v>-0</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>66.49187426173644</v>
-      </c>
-      <c r="AH9">
-        <v>0.9999033839339715</v>
-      </c>
-      <c r="AI9">
-        <v>0.1846996507270456</v>
-      </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>73.67028896336785</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL9">
-        <v>262.6674322602792</v>
+        <v>332.7721944200772</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>226.744994072065</v>
+        <v>348.0970922011077</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1606,52 +1606,52 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>115.7034081117394</v>
       </c>
       <c r="E10">
-        <v>262.4045378156197</v>
+        <v>282.2034344188766</v>
       </c>
       <c r="F10">
-        <v>241.4121747903701</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>423.3051516283149</v>
       </c>
       <c r="H10">
-        <v>153.5066546221375</v>
+        <v>126.9915454884945</v>
       </c>
       <c r="I10">
-        <v>393.6068067234295</v>
+        <v>282.2034344188766</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>120.7060873951851</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>259.6271596653665</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>262.4045378156197</v>
+        <v>423.3051516283149</v>
       </c>
       <c r="P10">
-        <v>393.6068067234295</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1666,60 +1666,60 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.0001322548480054775</v>
       </c>
       <c r="AA10">
-        <v>9.661606602853199E-05</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
+        <v>0.9998677451519945</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0.9998677451519946</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
         <v>-0</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0.9999033839339715</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
       <c r="AJ10">
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL10">
-        <v>274.2127420173226</v>
+        <v>242.6949536002339</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>241.4121747903701</v>
+        <v>259.6271596653665</v>
       </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1728,52 +1728,52 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>93.6564870907652</v>
       </c>
       <c r="E11">
-        <v>309.1354664251031</v>
+        <v>208.1255268683671</v>
       </c>
       <c r="F11">
-        <v>284.4046291110949</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>312.1882903025506</v>
       </c>
       <c r="H11">
-        <v>157.6590878768026</v>
+        <v>121.7534332179948</v>
       </c>
       <c r="I11">
-        <v>463.7031996376547</v>
+        <v>208.1255268683671</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>148.3850238840495</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>191.4754847188977</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>309.1354664251031</v>
+        <v>312.1882903025506</v>
       </c>
       <c r="P11">
-        <v>463.7031996376547</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1788,60 +1788,60 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.0001322548480054775</v>
       </c>
       <c r="AA11">
-        <v>9.661606602853199E-05</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0.9998677451519945</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0.9998677451519946</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
         <v>-0</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0.9999033839339715</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL11">
-        <v>306.0441117608521</v>
+        <v>215.40992030876</v>
       </c>
       <c r="AM11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>284.4046291110949</v>
+        <v>191.4754847188977</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1850,52 +1850,52 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>79.27146242396203</v>
       </c>
       <c r="E12">
-        <v>384.636049180636</v>
+        <v>165.1488800499209</v>
       </c>
       <c r="F12">
-        <v>353.8651652461851</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>247.7233200748814</v>
       </c>
       <c r="H12">
-        <v>225.0120887706721</v>
+        <v>99.08932802995255</v>
       </c>
       <c r="I12">
-        <v>576.954073770954</v>
+        <v>165.1488800499209</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>153.8544196722544</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>151.9369696459273</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>384.636049180636</v>
+        <v>247.7233200748814</v>
       </c>
       <c r="P12">
-        <v>576.954073770954</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1910,55 +1910,665 @@
         <v>0</v>
       </c>
       <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.0001322548480054775</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0.9998677451519945</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0.9998677451519946</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>-0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>2</v>
+      </c>
+      <c r="AL12">
+        <v>178.3607904539146</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>151.9369696459273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>59.93493526233807</v>
+      </c>
+      <c r="E13">
+        <v>130.2933375268219</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>195.4400062902328</v>
+      </c>
+      <c r="H13">
+        <v>64.49520207577683</v>
+      </c>
+      <c r="I13">
+        <v>130.2933375268219</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>119.8698705246761</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>195.4400062902328</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.0001322548480054775</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0.9998677451519945</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0.9998677451519946</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>-0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>124.4301373381149</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>119.8698705246761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>17.85120949282378</v>
+      </c>
+      <c r="E14">
+        <v>37.19001977671621</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>155.5161833492336</v>
+      </c>
+      <c r="H14">
+        <v>49.76517867175474</v>
+      </c>
+      <c r="I14">
+        <v>37.19001977671621</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>58.15029507877713</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>155.5161833492336</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>66.48743578943949</v>
+      </c>
+      <c r="Y14">
+        <v>0.1846873216373319</v>
+      </c>
+      <c r="Z14">
+        <v>0.0001433360873037174</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0.9998566639126962</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>66.48743578943949</v>
+      </c>
+      <c r="AG14">
         <v>0.3</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>9.661606602853199E-05</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
         <v>-0</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0.9999033839339715</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>378.8665084429265</v>
-      </c>
-      <c r="AM12">
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <v>2</v>
       </c>
-      <c r="AN12">
-        <v>353.8651652461851</v>
+      <c r="AL14">
+        <v>67.61638816457852</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>58.33498240041447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>73.72650615865381</v>
+      </c>
+      <c r="E15">
+        <v>171.4569910666368</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>146.6837414513741</v>
+      </c>
+      <c r="H15">
+        <v>46.93879726443972</v>
+      </c>
+      <c r="I15">
+        <v>97.78916096758275</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>131.2200129456464</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>146.6837414513741</v>
+      </c>
+      <c r="P15">
+        <v>73.66783009905402</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0.2046328613862611</v>
+      </c>
+      <c r="Z15">
+        <v>0.0001556140589868931</v>
+      </c>
+      <c r="AA15">
+        <v>-0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>0.9998443859410131</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0.9998443859410132</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>-0</v>
+      </c>
+      <c r="AJ15">
+        <v>73.66783009905402</v>
+      </c>
+      <c r="AK15">
+        <v>2</v>
+      </c>
+      <c r="AL15">
+        <v>120.6653034230935</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>131.4246458070326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>13.86725424647492</v>
+      </c>
+      <c r="E16">
+        <v>28.30051887035698</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>142.1786033021299</v>
+      </c>
+      <c r="H16">
+        <v>55.44965528783064</v>
+      </c>
+      <c r="I16">
+        <v>28.30051887035698</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>49.97115535991108</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>142.1786033021299</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>66.48521666439626</v>
+      </c>
+      <c r="Y16">
+        <v>0.1846811574011007</v>
+      </c>
+      <c r="Z16">
+        <v>0.0001666949284309591</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0.9998333050715691</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>66.48521666439626</v>
+      </c>
+      <c r="AG16">
+        <v>0.3</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>-0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>69.31690953430557</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>50.15583651731218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>45.41021179415237</v>
+      </c>
+      <c r="E17">
+        <v>98.71785172641819</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>148.0767775896273</v>
+      </c>
+      <c r="H17">
+        <v>48.865336604577</v>
+      </c>
+      <c r="I17">
+        <v>98.71785172641819</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>90.82042358830473</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>148.0767775896273</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0.0001666949284309591</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0.9998333050715691</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0.3</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>-0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>94.27554839872937</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>90.82042358830473</v>
       </c>
     </row>
   </sheetData>
